--- a/ZoningAtlas/raw_data/Excel_workbooks/Windham_Westminster_Features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Windham_Westminster_Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackwinigrad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707A005F-7B2A-254E-9A7B-9246A1F60BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAFF94C-2129-5E4A-8700-128722ED9A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="134">
   <si>
     <t>County</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Multi-family dwellings are conditional</t>
+  </si>
+  <si>
+    <t>Zachary Winigrad</t>
   </si>
 </sst>
 </file>
@@ -508,13 +511,937 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="233">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1532,13 +2459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
-  <dimension ref="A1:Z144"/>
+  <dimension ref="A1:W144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,11 +2491,11 @@
     <col min="19" max="19" width="14.83203125" customWidth="1"/>
     <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.83203125" customWidth="1"/>
-    <col min="22" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1635,12 +2562,11 @@
       <c r="V1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1687,8 +2613,9 @@
       <c r="V2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1735,8 +2662,9 @@
       <c r="V3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1783,8 +2711,9 @@
       <c r="V4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1831,8 +2760,9 @@
       <c r="V5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1879,8 +2809,9 @@
       <c r="V6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1927,8 +2858,9 @@
       <c r="V7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1975,8 +2907,9 @@
       <c r="V8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2023,8 +2956,9 @@
       <c r="V9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2071,8 +3005,9 @@
       <c r="V10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2119,8 +3054,9 @@
       <c r="V11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2167,8 +3103,9 @@
       <c r="V12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2215,8 +3152,9 @@
       <c r="V13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2263,8 +3201,9 @@
       <c r="V14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2311,8 +3250,9 @@
       <c r="V15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2359,8 +3299,9 @@
       <c r="V16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2407,8 +3348,9 @@
       <c r="V17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2455,8 +3397,9 @@
       <c r="V18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2488,8 +3431,9 @@
         <v>132</v>
       </c>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2515,176 +3459,569 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
       <c r="H21">
         <v>5</v>
       </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
       <c r="J21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>93</v>
+      </c>
+      <c r="S21" t="s">
+        <v>93</v>
+      </c>
+      <c r="U21" t="s">
+        <v>93</v>
+      </c>
+      <c r="W21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
         <v>40</v>
       </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
       <c r="D22">
         <v>50</v>
       </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
       <c r="F22">
         <v>40</v>
       </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
       <c r="H22">
         <v>50</v>
       </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
       <c r="J22">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U22" t="s">
+        <v>84</v>
+      </c>
+      <c r="W22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
       <c r="D23">
         <v>25</v>
       </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
       <c r="F23">
         <v>30</v>
       </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
       <c r="H23">
         <v>50</v>
       </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
       <c r="J23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" t="s">
+        <v>84</v>
+      </c>
+      <c r="W23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
         <v>30</v>
       </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
       <c r="D24">
         <v>25</v>
       </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
       <c r="F24">
         <v>30</v>
       </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
       <c r="H24">
         <v>50</v>
       </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
       <c r="J24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" t="s">
+        <v>84</v>
+      </c>
+      <c r="U24" t="s">
+        <v>84</v>
+      </c>
+      <c r="W24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
         <v>150</v>
       </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
       <c r="D25">
         <v>150</v>
       </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
       <c r="F25">
         <v>200</v>
       </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
       <c r="H25">
         <v>250</v>
       </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
       <c r="J25">
         <v>250</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U25" t="s">
+        <v>84</v>
+      </c>
+      <c r="W25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>69</v>
+      </c>
+      <c r="S26" t="s">
+        <v>69</v>
+      </c>
+      <c r="U26" t="s">
+        <v>69</v>
+      </c>
+      <c r="W26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>69</v>
+      </c>
+      <c r="S27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U27" t="s">
+        <v>69</v>
+      </c>
+      <c r="W27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
       <c r="D28">
         <v>2</v>
       </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
       <c r="F28">
         <v>2</v>
       </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
       <c r="H28">
         <v>2</v>
       </c>
+      <c r="I28" t="s">
+        <v>85</v>
+      </c>
       <c r="J28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U29" t="s">
+        <v>86</v>
+      </c>
+      <c r="W29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
         <v>35</v>
       </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
       <c r="D30">
         <v>35</v>
       </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
       <c r="F30">
         <v>35</v>
       </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
       <c r="H30">
         <v>35</v>
       </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
       <c r="J30">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S30" t="s">
+        <v>84</v>
+      </c>
+      <c r="U30" t="s">
+        <v>84</v>
+      </c>
+      <c r="W30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" t="s">
+        <v>87</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>87</v>
+      </c>
+      <c r="S31" t="s">
+        <v>87</v>
+      </c>
+      <c r="U31" t="s">
+        <v>87</v>
+      </c>
+      <c r="W31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S32" t="s">
+        <v>88</v>
+      </c>
+      <c r="U32" t="s">
+        <v>88</v>
+      </c>
+      <c r="W32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -2710,11 +4047,8 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2743,8 +4077,9 @@
       <c r="Q34" s="1"/>
       <c r="S34" s="1"/>
       <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2773,213 +4108,676 @@
       <c r="Q35" s="1"/>
       <c r="S35" s="1"/>
       <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
       <c r="D36">
         <v>1</v>
       </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
       <c r="F36">
         <v>1</v>
       </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
       <c r="H36">
         <v>5</v>
       </c>
+      <c r="I36" t="s">
+        <v>93</v>
+      </c>
       <c r="J36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>93</v>
+      </c>
+      <c r="M36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>93</v>
+      </c>
+      <c r="S36" t="s">
+        <v>93</v>
+      </c>
+      <c r="U36" t="s">
+        <v>93</v>
+      </c>
+      <c r="W36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
       <c r="F37">
         <v>1</v>
       </c>
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
       <c r="H37">
         <v>0.2</v>
       </c>
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
       <c r="J37">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>90</v>
+      </c>
+      <c r="S37" t="s">
+        <v>90</v>
+      </c>
+      <c r="U37" t="s">
+        <v>90</v>
+      </c>
+      <c r="W37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
       <c r="B38">
         <v>40</v>
       </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
       <c r="D38">
         <v>50</v>
       </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
       <c r="F38">
         <v>40</v>
       </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
       <c r="H38">
         <v>50</v>
       </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
       <c r="J38">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>84</v>
+      </c>
+      <c r="S38" t="s">
+        <v>84</v>
+      </c>
+      <c r="U38" t="s">
+        <v>84</v>
+      </c>
+      <c r="W38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="B39">
         <v>30</v>
       </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
       <c r="D39">
         <v>25</v>
       </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
       <c r="F39">
         <v>30</v>
       </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
       <c r="H39">
         <v>50</v>
       </c>
+      <c r="I39" t="s">
+        <v>84</v>
+      </c>
       <c r="J39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>84</v>
+      </c>
+      <c r="S39" t="s">
+        <v>84</v>
+      </c>
+      <c r="U39" t="s">
+        <v>84</v>
+      </c>
+      <c r="W39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
       <c r="B40">
         <v>30</v>
       </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
       <c r="D40">
         <v>25</v>
       </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
       <c r="F40">
         <v>30</v>
       </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
       <c r="H40">
         <v>50</v>
       </c>
+      <c r="I40" t="s">
+        <v>84</v>
+      </c>
       <c r="J40">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" t="s">
+        <v>84</v>
+      </c>
+      <c r="O40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>84</v>
+      </c>
+      <c r="S40" t="s">
+        <v>84</v>
+      </c>
+      <c r="U40" t="s">
+        <v>84</v>
+      </c>
+      <c r="W40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
       <c r="B41">
         <v>150</v>
       </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
       <c r="D41">
         <v>150</v>
       </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
       <c r="F41">
         <v>200</v>
       </c>
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
       <c r="H41">
         <v>250</v>
       </c>
+      <c r="I41" t="s">
+        <v>84</v>
+      </c>
       <c r="J41">
         <v>250</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" t="s">
+        <v>84</v>
+      </c>
+      <c r="O41" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>84</v>
+      </c>
+      <c r="S41" t="s">
+        <v>84</v>
+      </c>
+      <c r="U41" t="s">
+        <v>84</v>
+      </c>
+      <c r="W41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" t="s">
+        <v>69</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>69</v>
+      </c>
+      <c r="S42" t="s">
+        <v>69</v>
+      </c>
+      <c r="U42" t="s">
+        <v>69</v>
+      </c>
+      <c r="W42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" t="s">
+        <v>69</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>69</v>
+      </c>
+      <c r="S43" t="s">
+        <v>69</v>
+      </c>
+      <c r="U43" t="s">
+        <v>69</v>
+      </c>
+      <c r="W43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
       <c r="D44">
         <v>2</v>
       </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
       <c r="F44">
         <v>2</v>
       </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
       <c r="H44">
         <v>2</v>
       </c>
+      <c r="I44" t="s">
+        <v>85</v>
+      </c>
       <c r="J44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" t="s">
+        <v>85</v>
+      </c>
+      <c r="O44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>85</v>
+      </c>
+      <c r="S44" t="s">
+        <v>85</v>
+      </c>
+      <c r="U44" t="s">
+        <v>85</v>
+      </c>
+      <c r="W44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
       <c r="D45">
         <v>2</v>
       </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
       <c r="F45">
         <v>2</v>
       </c>
+      <c r="G45" t="s">
+        <v>85</v>
+      </c>
       <c r="H45">
         <v>2</v>
       </c>
+      <c r="I45" t="s">
+        <v>85</v>
+      </c>
       <c r="J45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>85</v>
+      </c>
+      <c r="M45" t="s">
+        <v>85</v>
+      </c>
+      <c r="O45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>85</v>
+      </c>
+      <c r="S45" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" t="s">
+        <v>85</v>
+      </c>
+      <c r="W45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" t="s">
+        <v>86</v>
+      </c>
+      <c r="K46" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" t="s">
+        <v>86</v>
+      </c>
+      <c r="O46" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>86</v>
+      </c>
+      <c r="S46" t="s">
+        <v>86</v>
+      </c>
+      <c r="U46" t="s">
+        <v>86</v>
+      </c>
+      <c r="W46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
       <c r="B47">
         <v>35</v>
       </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
       <c r="D47">
         <v>35</v>
       </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
       <c r="F47">
         <v>35</v>
       </c>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
       <c r="H47">
         <v>35</v>
       </c>
+      <c r="I47" t="s">
+        <v>84</v>
+      </c>
       <c r="J47">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>84</v>
+      </c>
+      <c r="S47" t="s">
+        <v>84</v>
+      </c>
+      <c r="U47" t="s">
+        <v>84</v>
+      </c>
+      <c r="W47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M48" t="s">
+        <v>87</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>87</v>
+      </c>
+      <c r="S48" t="s">
+        <v>87</v>
+      </c>
+      <c r="U48" t="s">
+        <v>87</v>
+      </c>
+      <c r="W48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" t="s">
+        <v>88</v>
+      </c>
+      <c r="M49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>88</v>
+      </c>
+      <c r="S49" t="s">
+        <v>88</v>
+      </c>
+      <c r="U49" t="s">
+        <v>88</v>
+      </c>
+      <c r="W49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -3005,262 +4803,798 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
+      <c r="C51" s="1"/>
       <c r="D51" t="s">
         <v>6</v>
       </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="s">
         <v>6</v>
       </c>
+      <c r="G51" s="1"/>
       <c r="H51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
+      <c r="C52" s="1"/>
       <c r="D52" t="s">
         <v>6</v>
       </c>
+      <c r="E52" s="1"/>
       <c r="F52" t="s">
         <v>6</v>
       </c>
+      <c r="G52" s="1"/>
       <c r="H52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
       <c r="D53">
         <v>1</v>
       </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
       <c r="F53">
         <v>1</v>
       </c>
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
       <c r="H53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K53" t="s">
+        <v>93</v>
+      </c>
+      <c r="M53" t="s">
+        <v>93</v>
+      </c>
+      <c r="O53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>93</v>
+      </c>
+      <c r="S53" t="s">
+        <v>93</v>
+      </c>
+      <c r="U53" t="s">
+        <v>93</v>
+      </c>
+      <c r="W53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
       <c r="D54">
         <v>1</v>
       </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
       <c r="F54">
         <v>1</v>
       </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
       <c r="H54">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+      <c r="K54" t="s">
+        <v>90</v>
+      </c>
+      <c r="M54" t="s">
+        <v>90</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>90</v>
+      </c>
+      <c r="S54" t="s">
+        <v>90</v>
+      </c>
+      <c r="U54" t="s">
+        <v>90</v>
+      </c>
+      <c r="W54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
       <c r="D55">
         <v>50</v>
       </c>
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
       <c r="F55">
         <v>40</v>
       </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
       <c r="H55">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55" t="s">
+        <v>84</v>
+      </c>
+      <c r="M55" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>84</v>
+      </c>
+      <c r="S55" t="s">
+        <v>84</v>
+      </c>
+      <c r="U55" t="s">
+        <v>84</v>
+      </c>
+      <c r="W55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
       <c r="B56">
         <v>30</v>
       </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
       <c r="D56">
         <v>25</v>
       </c>
+      <c r="E56" t="s">
+        <v>84</v>
+      </c>
       <c r="F56">
         <v>30</v>
       </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
       <c r="H56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M56" t="s">
+        <v>84</v>
+      </c>
+      <c r="O56" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>84</v>
+      </c>
+      <c r="S56" t="s">
+        <v>84</v>
+      </c>
+      <c r="U56" t="s">
+        <v>84</v>
+      </c>
+      <c r="W56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
       <c r="B57">
         <v>30</v>
       </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
       <c r="D57">
         <v>25</v>
       </c>
+      <c r="E57" t="s">
+        <v>84</v>
+      </c>
       <c r="F57">
         <v>30</v>
       </c>
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
       <c r="H57">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57" t="s">
+        <v>84</v>
+      </c>
+      <c r="M57" t="s">
+        <v>84</v>
+      </c>
+      <c r="O57" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S57" t="s">
+        <v>84</v>
+      </c>
+      <c r="U57" t="s">
+        <v>84</v>
+      </c>
+      <c r="W57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
       <c r="B58">
         <v>150</v>
       </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
       <c r="D58">
         <v>150</v>
       </c>
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
       <c r="F58">
         <v>200</v>
       </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
       <c r="H58">
         <v>250</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58" t="s">
+        <v>84</v>
+      </c>
+      <c r="M58" t="s">
+        <v>84</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>84</v>
+      </c>
+      <c r="S58" t="s">
+        <v>84</v>
+      </c>
+      <c r="U58" t="s">
+        <v>84</v>
+      </c>
+      <c r="W58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" t="s">
+        <v>69</v>
+      </c>
+      <c r="K59" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" t="s">
+        <v>69</v>
+      </c>
+      <c r="O59" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>69</v>
+      </c>
+      <c r="S59" t="s">
+        <v>69</v>
+      </c>
+      <c r="U59" t="s">
+        <v>69</v>
+      </c>
+      <c r="W59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" t="s">
+        <v>69</v>
+      </c>
+      <c r="K60" t="s">
+        <v>69</v>
+      </c>
+      <c r="M60" t="s">
+        <v>69</v>
+      </c>
+      <c r="O60" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>69</v>
+      </c>
+      <c r="S60" t="s">
+        <v>69</v>
+      </c>
+      <c r="U60" t="s">
+        <v>69</v>
+      </c>
+      <c r="W60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
       <c r="D61">
         <v>2</v>
       </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
       <c r="F61">
         <v>2</v>
       </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
       <c r="H61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M61" t="s">
+        <v>85</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>85</v>
+      </c>
+      <c r="S61" t="s">
+        <v>85</v>
+      </c>
+      <c r="U61" t="s">
+        <v>85</v>
+      </c>
+      <c r="W61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
       <c r="D62">
         <v>2</v>
       </c>
+      <c r="E62" t="s">
+        <v>85</v>
+      </c>
       <c r="F62">
         <v>2</v>
       </c>
+      <c r="G62" t="s">
+        <v>85</v>
+      </c>
       <c r="H62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" t="s">
+        <v>85</v>
+      </c>
+      <c r="M62" t="s">
+        <v>85</v>
+      </c>
+      <c r="O62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>85</v>
+      </c>
+      <c r="S62" t="s">
+        <v>85</v>
+      </c>
+      <c r="U62" t="s">
+        <v>85</v>
+      </c>
+      <c r="W62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
+      <c r="C63" s="1"/>
       <c r="D63" t="s">
         <v>6</v>
       </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="s">
         <v>6</v>
       </c>
+      <c r="G63" s="1"/>
       <c r="H63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
+      <c r="C64" s="1"/>
       <c r="D64" t="s">
         <v>6</v>
       </c>
+      <c r="E64" s="1"/>
       <c r="F64" t="s">
         <v>6</v>
       </c>
+      <c r="G64" s="1"/>
       <c r="H64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+      <c r="K65" t="s">
+        <v>86</v>
+      </c>
+      <c r="M65" t="s">
+        <v>86</v>
+      </c>
+      <c r="O65" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>86</v>
+      </c>
+      <c r="S65" t="s">
+        <v>86</v>
+      </c>
+      <c r="U65" t="s">
+        <v>86</v>
+      </c>
+      <c r="W65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
       <c r="B66">
         <v>35</v>
       </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
       <c r="D66">
         <v>35</v>
       </c>
+      <c r="E66" t="s">
+        <v>84</v>
+      </c>
       <c r="F66">
         <v>35</v>
       </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
       <c r="H66">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M66" t="s">
+        <v>84</v>
+      </c>
+      <c r="O66" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>84</v>
+      </c>
+      <c r="S66" t="s">
+        <v>84</v>
+      </c>
+      <c r="U66" t="s">
+        <v>84</v>
+      </c>
+      <c r="W66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" t="s">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s">
+        <v>87</v>
+      </c>
+      <c r="M67" t="s">
+        <v>87</v>
+      </c>
+      <c r="O67" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>87</v>
+      </c>
+      <c r="S67" t="s">
+        <v>87</v>
+      </c>
+      <c r="U67" t="s">
+        <v>87</v>
+      </c>
+      <c r="W67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" t="s">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s">
+        <v>88</v>
+      </c>
+      <c r="M68" t="s">
+        <v>88</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>88</v>
+      </c>
+      <c r="S68" t="s">
+        <v>88</v>
+      </c>
+      <c r="U68" t="s">
+        <v>88</v>
+      </c>
+      <c r="W68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+      <c r="K69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M69" t="s">
+        <v>92</v>
+      </c>
+      <c r="O69" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>92</v>
+      </c>
+      <c r="S69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U69" t="s">
+        <v>92</v>
+      </c>
+      <c r="W69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -3305,268 +5639,839 @@
         <v>89</v>
       </c>
       <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W70" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
+      <c r="C71" s="1"/>
       <c r="D71" t="s">
         <v>6</v>
       </c>
+      <c r="E71" s="1"/>
       <c r="F71" t="s">
         <v>6</v>
       </c>
+      <c r="G71" s="1"/>
       <c r="H71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
+      <c r="C72" s="1"/>
       <c r="D72" t="s">
         <v>6</v>
       </c>
+      <c r="E72" s="1"/>
       <c r="F72" t="s">
         <v>6</v>
       </c>
+      <c r="G72" s="1"/>
       <c r="H72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
       <c r="D73">
         <v>1</v>
       </c>
+      <c r="E73" t="s">
+        <v>93</v>
+      </c>
       <c r="F73">
         <v>1</v>
       </c>
+      <c r="G73" t="s">
+        <v>93</v>
+      </c>
       <c r="H73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>93</v>
+      </c>
+      <c r="K73" t="s">
+        <v>93</v>
+      </c>
+      <c r="M73" t="s">
+        <v>93</v>
+      </c>
+      <c r="O73" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>93</v>
+      </c>
+      <c r="S73" t="s">
+        <v>93</v>
+      </c>
+      <c r="U73" t="s">
+        <v>93</v>
+      </c>
+      <c r="W73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
+      <c r="C74" t="s">
+        <v>90</v>
+      </c>
       <c r="D74">
         <v>1</v>
       </c>
+      <c r="E74" t="s">
+        <v>90</v>
+      </c>
       <c r="F74">
         <v>1</v>
       </c>
+      <c r="G74" t="s">
+        <v>90</v>
+      </c>
       <c r="H74">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>90</v>
+      </c>
+      <c r="K74" t="s">
+        <v>90</v>
+      </c>
+      <c r="M74" t="s">
+        <v>90</v>
+      </c>
+      <c r="O74" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>90</v>
+      </c>
+      <c r="S74" t="s">
+        <v>90</v>
+      </c>
+      <c r="U74" t="s">
+        <v>90</v>
+      </c>
+      <c r="W74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
       <c r="B75">
         <v>40</v>
       </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
       <c r="D75">
         <v>50</v>
       </c>
+      <c r="E75" t="s">
+        <v>84</v>
+      </c>
       <c r="F75">
         <v>40</v>
       </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
       <c r="H75">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>84</v>
+      </c>
+      <c r="K75" t="s">
+        <v>84</v>
+      </c>
+      <c r="M75" t="s">
+        <v>84</v>
+      </c>
+      <c r="O75" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>84</v>
+      </c>
+      <c r="S75" t="s">
+        <v>84</v>
+      </c>
+      <c r="U75" t="s">
+        <v>84</v>
+      </c>
+      <c r="W75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
       <c r="B76">
         <v>30</v>
       </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
       <c r="D76">
         <v>25</v>
       </c>
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
       <c r="F76">
         <v>30</v>
       </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
       <c r="H76">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>84</v>
+      </c>
+      <c r="K76" t="s">
+        <v>84</v>
+      </c>
+      <c r="M76" t="s">
+        <v>84</v>
+      </c>
+      <c r="O76" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>84</v>
+      </c>
+      <c r="S76" t="s">
+        <v>84</v>
+      </c>
+      <c r="U76" t="s">
+        <v>84</v>
+      </c>
+      <c r="W76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
       <c r="B77">
         <v>30</v>
       </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
       <c r="D77">
         <v>25</v>
       </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
       <c r="F77">
         <v>30</v>
       </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
       <c r="H77">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>84</v>
+      </c>
+      <c r="K77" t="s">
+        <v>84</v>
+      </c>
+      <c r="M77" t="s">
+        <v>84</v>
+      </c>
+      <c r="O77" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>84</v>
+      </c>
+      <c r="S77" t="s">
+        <v>84</v>
+      </c>
+      <c r="U77" t="s">
+        <v>84</v>
+      </c>
+      <c r="W77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
       <c r="B78">
         <v>150</v>
       </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
       <c r="D78">
         <v>150</v>
       </c>
+      <c r="E78" t="s">
+        <v>84</v>
+      </c>
       <c r="F78">
         <v>200</v>
       </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
       <c r="H78">
         <v>250</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>84</v>
+      </c>
+      <c r="K78" t="s">
+        <v>84</v>
+      </c>
+      <c r="M78" t="s">
+        <v>84</v>
+      </c>
+      <c r="O78" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>84</v>
+      </c>
+      <c r="S78" t="s">
+        <v>84</v>
+      </c>
+      <c r="U78" t="s">
+        <v>84</v>
+      </c>
+      <c r="W78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" t="s">
+        <v>69</v>
+      </c>
+      <c r="K79" t="s">
+        <v>69</v>
+      </c>
+      <c r="M79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O79" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>69</v>
+      </c>
+      <c r="S79" t="s">
+        <v>69</v>
+      </c>
+      <c r="U79" t="s">
+        <v>69</v>
+      </c>
+      <c r="W79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" t="s">
+        <v>69</v>
+      </c>
+      <c r="G80" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80" t="s">
+        <v>69</v>
+      </c>
+      <c r="K80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M80" t="s">
+        <v>69</v>
+      </c>
+      <c r="O80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>69</v>
+      </c>
+      <c r="S80" t="s">
+        <v>69</v>
+      </c>
+      <c r="U80" t="s">
+        <v>69</v>
+      </c>
+      <c r="W80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
       <c r="D81">
         <v>2</v>
       </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
       <c r="F81">
         <v>2</v>
       </c>
+      <c r="G81" t="s">
+        <v>85</v>
+      </c>
       <c r="H81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>85</v>
+      </c>
+      <c r="K81" t="s">
+        <v>85</v>
+      </c>
+      <c r="M81" t="s">
+        <v>85</v>
+      </c>
+      <c r="O81" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>85</v>
+      </c>
+      <c r="S81" t="s">
+        <v>85</v>
+      </c>
+      <c r="U81" t="s">
+        <v>85</v>
+      </c>
+      <c r="W81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
       <c r="D82">
         <v>2</v>
       </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
       <c r="F82">
         <v>2</v>
       </c>
+      <c r="G82" t="s">
+        <v>85</v>
+      </c>
       <c r="H82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>85</v>
+      </c>
+      <c r="K82" t="s">
+        <v>85</v>
+      </c>
+      <c r="M82" t="s">
+        <v>85</v>
+      </c>
+      <c r="O82" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>85</v>
+      </c>
+      <c r="S82" t="s">
+        <v>85</v>
+      </c>
+      <c r="U82" t="s">
+        <v>85</v>
+      </c>
+      <c r="W82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
+      <c r="C83" s="1"/>
       <c r="D83" t="s">
         <v>6</v>
       </c>
+      <c r="E83" s="1"/>
       <c r="F83" t="s">
         <v>6</v>
       </c>
+      <c r="G83" s="1"/>
       <c r="H83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
+      <c r="C84" s="1"/>
       <c r="D84" t="s">
         <v>6</v>
       </c>
+      <c r="E84" s="1"/>
       <c r="F84" t="s">
         <v>6</v>
       </c>
+      <c r="G84" s="1"/>
       <c r="H84" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s">
+        <v>86</v>
+      </c>
+      <c r="I85" t="s">
+        <v>86</v>
+      </c>
+      <c r="K85" t="s">
+        <v>86</v>
+      </c>
+      <c r="M85" t="s">
+        <v>86</v>
+      </c>
+      <c r="O85" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>86</v>
+      </c>
+      <c r="S85" t="s">
+        <v>86</v>
+      </c>
+      <c r="U85" t="s">
+        <v>86</v>
+      </c>
+      <c r="W85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
       <c r="B86">
         <v>35</v>
       </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
       <c r="D86">
         <v>35</v>
       </c>
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
       <c r="F86">
         <v>35</v>
       </c>
+      <c r="G86" t="s">
+        <v>84</v>
+      </c>
       <c r="H86">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>84</v>
+      </c>
+      <c r="K86" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" t="s">
+        <v>84</v>
+      </c>
+      <c r="O86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>84</v>
+      </c>
+      <c r="S86" t="s">
+        <v>84</v>
+      </c>
+      <c r="U86" t="s">
+        <v>84</v>
+      </c>
+      <c r="W86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s">
+        <v>87</v>
+      </c>
+      <c r="I87" t="s">
+        <v>87</v>
+      </c>
+      <c r="K87" t="s">
+        <v>87</v>
+      </c>
+      <c r="M87" t="s">
+        <v>87</v>
+      </c>
+      <c r="O87" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>87</v>
+      </c>
+      <c r="S87" t="s">
+        <v>87</v>
+      </c>
+      <c r="U87" t="s">
+        <v>87</v>
+      </c>
+      <c r="W87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s">
+        <v>88</v>
+      </c>
+      <c r="I88" t="s">
+        <v>88</v>
+      </c>
+      <c r="K88" t="s">
+        <v>88</v>
+      </c>
+      <c r="M88" t="s">
+        <v>88</v>
+      </c>
+      <c r="O88" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>88</v>
+      </c>
+      <c r="S88" t="s">
+        <v>88</v>
+      </c>
+      <c r="U88" t="s">
+        <v>88</v>
+      </c>
+      <c r="W88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" t="s">
+        <v>92</v>
+      </c>
+      <c r="I89" t="s">
+        <v>92</v>
+      </c>
+      <c r="K89" t="s">
+        <v>92</v>
+      </c>
+      <c r="M89" t="s">
+        <v>92</v>
+      </c>
+      <c r="O89" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>92</v>
+      </c>
+      <c r="S89" t="s">
+        <v>92</v>
+      </c>
+      <c r="U89" t="s">
+        <v>92</v>
+      </c>
+      <c r="W89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>94</v>
+      </c>
+      <c r="G90" t="s">
+        <v>94</v>
+      </c>
+      <c r="I90" t="s">
+        <v>94</v>
+      </c>
+      <c r="K90" t="s">
+        <v>94</v>
+      </c>
+      <c r="M90" t="s">
+        <v>94</v>
+      </c>
+      <c r="O90" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>94</v>
+      </c>
+      <c r="S90" t="s">
+        <v>94</v>
+      </c>
+      <c r="U90" t="s">
+        <v>94</v>
+      </c>
+      <c r="W90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -3611,268 +6516,839 @@
         <v>89</v>
       </c>
       <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W91" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
+      <c r="C92" s="1"/>
       <c r="D92" t="s">
         <v>6</v>
       </c>
+      <c r="E92" s="1"/>
       <c r="F92" t="s">
         <v>6</v>
       </c>
+      <c r="G92" s="1"/>
       <c r="H92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
+      <c r="C93" s="1"/>
       <c r="D93" t="s">
         <v>6</v>
       </c>
+      <c r="E93" s="1"/>
       <c r="F93" t="s">
         <v>6</v>
       </c>
+      <c r="G93" s="1"/>
       <c r="H93" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
       <c r="D94">
         <v>1</v>
       </c>
+      <c r="E94" t="s">
+        <v>93</v>
+      </c>
       <c r="F94">
         <v>1</v>
       </c>
+      <c r="G94" t="s">
+        <v>93</v>
+      </c>
       <c r="H94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>93</v>
+      </c>
+      <c r="K94" t="s">
+        <v>93</v>
+      </c>
+      <c r="M94" t="s">
+        <v>93</v>
+      </c>
+      <c r="O94" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>93</v>
+      </c>
+      <c r="S94" t="s">
+        <v>93</v>
+      </c>
+      <c r="U94" t="s">
+        <v>93</v>
+      </c>
+      <c r="W94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
       <c r="D95">
         <v>1</v>
       </c>
+      <c r="E95" t="s">
+        <v>90</v>
+      </c>
       <c r="F95">
         <v>1</v>
       </c>
+      <c r="G95" t="s">
+        <v>90</v>
+      </c>
       <c r="H95">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>90</v>
+      </c>
+      <c r="K95" t="s">
+        <v>90</v>
+      </c>
+      <c r="M95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O95" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>90</v>
+      </c>
+      <c r="S95" t="s">
+        <v>90</v>
+      </c>
+      <c r="U95" t="s">
+        <v>90</v>
+      </c>
+      <c r="W95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
       <c r="B96">
         <v>40</v>
       </c>
+      <c r="C96" t="s">
+        <v>84</v>
+      </c>
       <c r="D96">
         <v>50</v>
       </c>
+      <c r="E96" t="s">
+        <v>84</v>
+      </c>
       <c r="F96">
         <v>40</v>
       </c>
+      <c r="G96" t="s">
+        <v>84</v>
+      </c>
       <c r="H96">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>84</v>
+      </c>
+      <c r="K96" t="s">
+        <v>84</v>
+      </c>
+      <c r="M96" t="s">
+        <v>84</v>
+      </c>
+      <c r="O96" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>84</v>
+      </c>
+      <c r="S96" t="s">
+        <v>84</v>
+      </c>
+      <c r="U96" t="s">
+        <v>84</v>
+      </c>
+      <c r="W96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
       <c r="B97">
         <v>30</v>
       </c>
+      <c r="C97" t="s">
+        <v>84</v>
+      </c>
       <c r="D97">
         <v>25</v>
       </c>
+      <c r="E97" t="s">
+        <v>84</v>
+      </c>
       <c r="F97">
         <v>30</v>
       </c>
+      <c r="G97" t="s">
+        <v>84</v>
+      </c>
       <c r="H97">
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>84</v>
+      </c>
+      <c r="K97" t="s">
+        <v>84</v>
+      </c>
+      <c r="M97" t="s">
+        <v>84</v>
+      </c>
+      <c r="O97" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>84</v>
+      </c>
+      <c r="S97" t="s">
+        <v>84</v>
+      </c>
+      <c r="U97" t="s">
+        <v>84</v>
+      </c>
+      <c r="W97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
       <c r="B98">
         <v>30</v>
       </c>
+      <c r="C98" t="s">
+        <v>84</v>
+      </c>
       <c r="D98">
         <v>25</v>
       </c>
+      <c r="E98" t="s">
+        <v>84</v>
+      </c>
       <c r="F98">
         <v>30</v>
       </c>
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
       <c r="H98">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>84</v>
+      </c>
+      <c r="K98" t="s">
+        <v>84</v>
+      </c>
+      <c r="M98" t="s">
+        <v>84</v>
+      </c>
+      <c r="O98" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>84</v>
+      </c>
+      <c r="S98" t="s">
+        <v>84</v>
+      </c>
+      <c r="U98" t="s">
+        <v>84</v>
+      </c>
+      <c r="W98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
       <c r="B99">
         <v>150</v>
       </c>
+      <c r="C99" t="s">
+        <v>84</v>
+      </c>
       <c r="D99">
         <v>150</v>
       </c>
+      <c r="E99" t="s">
+        <v>84</v>
+      </c>
       <c r="F99">
         <v>200</v>
       </c>
+      <c r="G99" t="s">
+        <v>84</v>
+      </c>
       <c r="H99">
         <v>250</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>84</v>
+      </c>
+      <c r="K99" t="s">
+        <v>84</v>
+      </c>
+      <c r="M99" t="s">
+        <v>84</v>
+      </c>
+      <c r="O99" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>84</v>
+      </c>
+      <c r="S99" t="s">
+        <v>84</v>
+      </c>
+      <c r="U99" t="s">
+        <v>84</v>
+      </c>
+      <c r="W99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" t="s">
+        <v>69</v>
+      </c>
+      <c r="G100" t="s">
+        <v>69</v>
+      </c>
+      <c r="I100" t="s">
+        <v>69</v>
+      </c>
+      <c r="K100" t="s">
+        <v>69</v>
+      </c>
+      <c r="M100" t="s">
+        <v>69</v>
+      </c>
+      <c r="O100" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>69</v>
+      </c>
+      <c r="S100" t="s">
+        <v>69</v>
+      </c>
+      <c r="U100" t="s">
+        <v>69</v>
+      </c>
+      <c r="W100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" t="s">
+        <v>69</v>
+      </c>
+      <c r="G101" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101" t="s">
+        <v>69</v>
+      </c>
+      <c r="K101" t="s">
+        <v>69</v>
+      </c>
+      <c r="M101" t="s">
+        <v>69</v>
+      </c>
+      <c r="O101" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>69</v>
+      </c>
+      <c r="S101" t="s">
+        <v>69</v>
+      </c>
+      <c r="U101" t="s">
+        <v>69</v>
+      </c>
+      <c r="W101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
       <c r="D102">
         <v>2</v>
       </c>
+      <c r="E102" t="s">
+        <v>85</v>
+      </c>
       <c r="F102">
         <v>2</v>
       </c>
+      <c r="G102" t="s">
+        <v>85</v>
+      </c>
       <c r="H102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>85</v>
+      </c>
+      <c r="K102" t="s">
+        <v>85</v>
+      </c>
+      <c r="M102" t="s">
+        <v>85</v>
+      </c>
+      <c r="O102" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>85</v>
+      </c>
+      <c r="S102" t="s">
+        <v>85</v>
+      </c>
+      <c r="U102" t="s">
+        <v>85</v>
+      </c>
+      <c r="W102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
       <c r="D103">
         <v>2</v>
       </c>
+      <c r="E103" t="s">
+        <v>85</v>
+      </c>
       <c r="F103">
         <v>2</v>
       </c>
+      <c r="G103" t="s">
+        <v>85</v>
+      </c>
       <c r="H103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>85</v>
+      </c>
+      <c r="K103" t="s">
+        <v>85</v>
+      </c>
+      <c r="M103" t="s">
+        <v>85</v>
+      </c>
+      <c r="O103" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>85</v>
+      </c>
+      <c r="S103" t="s">
+        <v>85</v>
+      </c>
+      <c r="U103" t="s">
+        <v>85</v>
+      </c>
+      <c r="W103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
+      <c r="C104" s="1"/>
       <c r="D104" t="s">
         <v>6</v>
       </c>
+      <c r="E104" s="1"/>
       <c r="F104" t="s">
         <v>6</v>
       </c>
+      <c r="G104" s="1"/>
       <c r="H104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
+      <c r="C105" s="1"/>
       <c r="D105" t="s">
         <v>6</v>
       </c>
+      <c r="E105" s="1"/>
       <c r="F105" t="s">
         <v>6</v>
       </c>
+      <c r="G105" s="1"/>
       <c r="H105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" t="s">
+        <v>86</v>
+      </c>
+      <c r="G106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I106" t="s">
+        <v>86</v>
+      </c>
+      <c r="K106" t="s">
+        <v>86</v>
+      </c>
+      <c r="M106" t="s">
+        <v>86</v>
+      </c>
+      <c r="O106" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>86</v>
+      </c>
+      <c r="S106" t="s">
+        <v>86</v>
+      </c>
+      <c r="U106" t="s">
+        <v>86</v>
+      </c>
+      <c r="W106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
       <c r="B107">
         <v>35</v>
       </c>
+      <c r="C107" t="s">
+        <v>84</v>
+      </c>
       <c r="D107">
         <v>35</v>
       </c>
+      <c r="E107" t="s">
+        <v>84</v>
+      </c>
       <c r="F107">
         <v>35</v>
       </c>
+      <c r="G107" t="s">
+        <v>84</v>
+      </c>
       <c r="H107">
         <v>35</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>84</v>
+      </c>
+      <c r="K107" t="s">
+        <v>84</v>
+      </c>
+      <c r="M107" t="s">
+        <v>84</v>
+      </c>
+      <c r="O107" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>84</v>
+      </c>
+      <c r="S107" t="s">
+        <v>84</v>
+      </c>
+      <c r="U107" t="s">
+        <v>84</v>
+      </c>
+      <c r="W107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>87</v>
+      </c>
+      <c r="E108" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108" t="s">
+        <v>87</v>
+      </c>
+      <c r="I108" t="s">
+        <v>87</v>
+      </c>
+      <c r="K108" t="s">
+        <v>87</v>
+      </c>
+      <c r="M108" t="s">
+        <v>87</v>
+      </c>
+      <c r="O108" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>87</v>
+      </c>
+      <c r="S108" t="s">
+        <v>87</v>
+      </c>
+      <c r="U108" t="s">
+        <v>87</v>
+      </c>
+      <c r="W108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>88</v>
+      </c>
+      <c r="E109" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s">
+        <v>88</v>
+      </c>
+      <c r="I109" t="s">
+        <v>88</v>
+      </c>
+      <c r="K109" t="s">
+        <v>88</v>
+      </c>
+      <c r="M109" t="s">
+        <v>88</v>
+      </c>
+      <c r="O109" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>88</v>
+      </c>
+      <c r="S109" t="s">
+        <v>88</v>
+      </c>
+      <c r="U109" t="s">
+        <v>88</v>
+      </c>
+      <c r="W109" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>92</v>
+      </c>
+      <c r="E110" t="s">
+        <v>92</v>
+      </c>
+      <c r="G110" t="s">
+        <v>92</v>
+      </c>
+      <c r="I110" t="s">
+        <v>92</v>
+      </c>
+      <c r="K110" t="s">
+        <v>92</v>
+      </c>
+      <c r="M110" t="s">
+        <v>92</v>
+      </c>
+      <c r="O110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>92</v>
+      </c>
+      <c r="S110" t="s">
+        <v>92</v>
+      </c>
+      <c r="U110" t="s">
+        <v>92</v>
+      </c>
+      <c r="W110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" t="s">
+        <v>94</v>
+      </c>
+      <c r="G111" t="s">
+        <v>94</v>
+      </c>
+      <c r="I111" t="s">
+        <v>94</v>
+      </c>
+      <c r="K111" t="s">
+        <v>94</v>
+      </c>
+      <c r="M111" t="s">
+        <v>94</v>
+      </c>
+      <c r="O111" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>94</v>
+      </c>
+      <c r="S111" t="s">
+        <v>94</v>
+      </c>
+      <c r="U111" t="s">
+        <v>94</v>
+      </c>
+      <c r="W111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -3917,82 +7393,320 @@
         <v>89</v>
       </c>
       <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="1"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W112" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>51</v>
       </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-      <c r="V113" s="6"/>
-      <c r="W113" s="6"/>
-      <c r="X113" s="6"/>
-      <c r="Y113" s="6"/>
-      <c r="Z113" s="6"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>93</v>
+      </c>
+      <c r="E115" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115" t="s">
+        <v>93</v>
+      </c>
+      <c r="I115" t="s">
+        <v>93</v>
+      </c>
+      <c r="K115" t="s">
+        <v>93</v>
+      </c>
+      <c r="M115" t="s">
+        <v>93</v>
+      </c>
+      <c r="O115" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>93</v>
+      </c>
+      <c r="S115" t="s">
+        <v>93</v>
+      </c>
+      <c r="U115" t="s">
+        <v>93</v>
+      </c>
+      <c r="W115" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>90</v>
+      </c>
+      <c r="E116" t="s">
+        <v>90</v>
+      </c>
+      <c r="G116" t="s">
+        <v>90</v>
+      </c>
+      <c r="I116" t="s">
+        <v>90</v>
+      </c>
+      <c r="K116" t="s">
+        <v>90</v>
+      </c>
+      <c r="M116" t="s">
+        <v>90</v>
+      </c>
+      <c r="O116" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>90</v>
+      </c>
+      <c r="S116" t="s">
+        <v>90</v>
+      </c>
+      <c r="U116" t="s">
+        <v>90</v>
+      </c>
+      <c r="W116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>85</v>
+      </c>
+      <c r="E117" t="s">
+        <v>85</v>
+      </c>
+      <c r="G117" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117" t="s">
+        <v>85</v>
+      </c>
+      <c r="K117" t="s">
+        <v>85</v>
+      </c>
+      <c r="M117" t="s">
+        <v>85</v>
+      </c>
+      <c r="O117" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>85</v>
+      </c>
+      <c r="S117" t="s">
+        <v>85</v>
+      </c>
+      <c r="U117" t="s">
+        <v>85</v>
+      </c>
+      <c r="W117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G118" t="s">
+        <v>85</v>
+      </c>
+      <c r="I118" t="s">
+        <v>85</v>
+      </c>
+      <c r="K118" t="s">
+        <v>85</v>
+      </c>
+      <c r="M118" t="s">
+        <v>85</v>
+      </c>
+      <c r="O118" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>85</v>
+      </c>
+      <c r="S118" t="s">
+        <v>85</v>
+      </c>
+      <c r="U118" t="s">
+        <v>85</v>
+      </c>
+      <c r="W118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119" t="s">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s">
+        <v>88</v>
+      </c>
+      <c r="I119" t="s">
+        <v>88</v>
+      </c>
+      <c r="K119" t="s">
+        <v>88</v>
+      </c>
+      <c r="M119" t="s">
+        <v>88</v>
+      </c>
+      <c r="O119" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>88</v>
+      </c>
+      <c r="S119" t="s">
+        <v>88</v>
+      </c>
+      <c r="U119" t="s">
+        <v>88</v>
+      </c>
+      <c r="W119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>92</v>
+      </c>
+      <c r="E120" t="s">
+        <v>92</v>
+      </c>
+      <c r="G120" t="s">
+        <v>92</v>
+      </c>
+      <c r="I120" t="s">
+        <v>92</v>
+      </c>
+      <c r="K120" t="s">
+        <v>92</v>
+      </c>
+      <c r="M120" t="s">
+        <v>92</v>
+      </c>
+      <c r="O120" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>92</v>
+      </c>
+      <c r="S120" t="s">
+        <v>92</v>
+      </c>
+      <c r="U120" t="s">
+        <v>92</v>
+      </c>
+      <c r="W120" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>94</v>
+      </c>
+      <c r="E121" t="s">
+        <v>94</v>
+      </c>
+      <c r="G121" t="s">
+        <v>94</v>
+      </c>
+      <c r="I121" t="s">
+        <v>94</v>
+      </c>
+      <c r="K121" t="s">
+        <v>94</v>
+      </c>
+      <c r="M121" t="s">
+        <v>94</v>
+      </c>
+      <c r="O121" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>94</v>
+      </c>
+      <c r="S121" t="s">
+        <v>94</v>
+      </c>
+      <c r="U121" t="s">
+        <v>94</v>
+      </c>
+      <c r="W121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -4037,62 +7751,281 @@
         <v>89</v>
       </c>
       <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W122" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="W124" s="1"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>93</v>
+      </c>
+      <c r="E127" t="s">
+        <v>93</v>
+      </c>
+      <c r="G127" t="s">
+        <v>93</v>
+      </c>
+      <c r="I127" t="s">
+        <v>93</v>
+      </c>
+      <c r="K127" t="s">
+        <v>93</v>
+      </c>
+      <c r="M127" t="s">
+        <v>93</v>
+      </c>
+      <c r="O127" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>93</v>
+      </c>
+      <c r="S127" t="s">
+        <v>93</v>
+      </c>
+      <c r="U127" t="s">
+        <v>93</v>
+      </c>
+      <c r="W127" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>85</v>
+      </c>
+      <c r="E128" t="s">
+        <v>85</v>
+      </c>
+      <c r="G128" t="s">
+        <v>85</v>
+      </c>
+      <c r="I128" t="s">
+        <v>85</v>
+      </c>
+      <c r="K128" t="s">
+        <v>85</v>
+      </c>
+      <c r="M128" t="s">
+        <v>85</v>
+      </c>
+      <c r="O128" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>85</v>
+      </c>
+      <c r="S128" t="s">
+        <v>85</v>
+      </c>
+      <c r="U128" t="s">
+        <v>85</v>
+      </c>
+      <c r="W128" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" t="s">
+        <v>69</v>
+      </c>
+      <c r="G130" t="s">
+        <v>69</v>
+      </c>
+      <c r="I130" t="s">
+        <v>69</v>
+      </c>
+      <c r="K130" t="s">
+        <v>69</v>
+      </c>
+      <c r="M130" t="s">
+        <v>69</v>
+      </c>
+      <c r="O130" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>69</v>
+      </c>
+      <c r="S130" t="s">
+        <v>69</v>
+      </c>
+      <c r="U130" t="s">
+        <v>69</v>
+      </c>
+      <c r="W130" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>88</v>
+      </c>
+      <c r="E131" t="s">
+        <v>88</v>
+      </c>
+      <c r="G131" t="s">
+        <v>88</v>
+      </c>
+      <c r="I131" t="s">
+        <v>88</v>
+      </c>
+      <c r="K131" t="s">
+        <v>88</v>
+      </c>
+      <c r="M131" t="s">
+        <v>88</v>
+      </c>
+      <c r="O131" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>88</v>
+      </c>
+      <c r="S131" t="s">
+        <v>88</v>
+      </c>
+      <c r="U131" t="s">
+        <v>88</v>
+      </c>
+      <c r="W131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>92</v>
+      </c>
+      <c r="E132" t="s">
+        <v>92</v>
+      </c>
+      <c r="G132" t="s">
+        <v>92</v>
+      </c>
+      <c r="I132" t="s">
+        <v>92</v>
+      </c>
+      <c r="K132" t="s">
+        <v>92</v>
+      </c>
+      <c r="M132" t="s">
+        <v>92</v>
+      </c>
+      <c r="O132" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>92</v>
+      </c>
+      <c r="S132" t="s">
+        <v>92</v>
+      </c>
+      <c r="U132" t="s">
+        <v>92</v>
+      </c>
+      <c r="W132" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>59</v>
       </c>
@@ -4137,47 +8070,134 @@
         <v>89</v>
       </c>
       <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W133" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
+      <c r="C134" s="1"/>
       <c r="D134" t="s">
         <v>5</v>
       </c>
+      <c r="E134" s="1"/>
       <c r="F134" t="s">
         <v>5</v>
       </c>
+      <c r="G134" s="1"/>
       <c r="H134" t="s">
         <v>5</v>
       </c>
+      <c r="I134" s="1"/>
       <c r="J134" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>93</v>
+      </c>
+      <c r="E135" t="s">
+        <v>93</v>
+      </c>
+      <c r="G135" t="s">
+        <v>93</v>
+      </c>
+      <c r="I135" t="s">
+        <v>93</v>
+      </c>
+      <c r="K135" t="s">
+        <v>93</v>
+      </c>
+      <c r="M135" t="s">
+        <v>93</v>
+      </c>
+      <c r="O135" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>93</v>
+      </c>
+      <c r="S135" t="s">
+        <v>93</v>
+      </c>
+      <c r="U135" t="s">
+        <v>93</v>
+      </c>
+      <c r="W135" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>90</v>
+      </c>
+      <c r="E136" t="s">
+        <v>90</v>
+      </c>
+      <c r="G136" t="s">
+        <v>90</v>
+      </c>
+      <c r="I136" t="s">
+        <v>90</v>
+      </c>
+      <c r="K136" t="s">
+        <v>90</v>
+      </c>
+      <c r="M136" t="s">
+        <v>90</v>
+      </c>
+      <c r="O136" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>90</v>
+      </c>
+      <c r="S136" t="s">
+        <v>90</v>
+      </c>
+      <c r="U136" t="s">
+        <v>90</v>
+      </c>
+      <c r="W136" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>62</v>
       </c>
@@ -4222,62 +8242,105 @@
         <v>89</v>
       </c>
       <c r="V138" s="1"/>
-      <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W138" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
+      <c r="C139" s="1"/>
       <c r="D139" t="s">
         <v>6</v>
       </c>
+      <c r="E139" s="1"/>
       <c r="F139" t="s">
         <v>6</v>
       </c>
+      <c r="G139" s="1"/>
       <c r="H139" t="s">
         <v>6</v>
       </c>
+      <c r="I139" s="1"/>
       <c r="J139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="W139" s="1"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="W140" s="1"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
+      <c r="C141" s="1"/>
       <c r="D141" t="s">
         <v>5</v>
       </c>
+      <c r="E141" s="1"/>
       <c r="F141" t="s">
         <v>5</v>
       </c>
+      <c r="G141" s="1"/>
       <c r="H141" t="s">
         <v>5</v>
       </c>
+      <c r="I141" s="1"/>
       <c r="J141" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="W141" s="1"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -4322,606 +8385,838 @@
         <v>89</v>
       </c>
       <c r="V143" s="1"/>
-      <c r="W143" s="1"/>
-      <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W143" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>95</v>
       </c>
+      <c r="C144" t="s">
+        <v>90</v>
+      </c>
+      <c r="E144" t="s">
+        <v>90</v>
+      </c>
+      <c r="G144" t="s">
+        <v>90</v>
+      </c>
+      <c r="I144" t="s">
+        <v>90</v>
+      </c>
+      <c r="K144" t="s">
+        <v>90</v>
+      </c>
+      <c r="M144" t="s">
+        <v>90</v>
+      </c>
+      <c r="O144" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>90</v>
+      </c>
+      <c r="S144" t="s">
+        <v>90</v>
+      </c>
+      <c r="U144" t="s">
+        <v>90</v>
+      </c>
+      <c r="W144" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B113:Z113"/>
+    <mergeCell ref="B113:W113"/>
   </mergeCells>
-  <conditionalFormatting sqref="B89 D88:D90 F88:F90 H88:H90 J71:J90 L71:L90 N71:N90 P71:P90 R71:R90 T71:T90 V71:Z90 B90:C90 E90 G90 I90 K90 M90 O90 Q90 S90 U90">
-    <cfRule type="expression" dxfId="100" priority="186">
+  <conditionalFormatting sqref="B51:B58">
+    <cfRule type="expression" dxfId="232" priority="143">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B78">
+    <cfRule type="expression" dxfId="231" priority="141">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B88">
+    <cfRule type="expression" dxfId="230" priority="142" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92:B99">
+    <cfRule type="expression" dxfId="229" priority="139">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100:B109">
+    <cfRule type="expression" dxfId="228" priority="140" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114:D121 F114:F121 H114:H121 J114:J121 L114:L121 N114:N121 P114:P121 R114:R121 T114:T121 V114:V121 B114:B121">
+    <cfRule type="expression" dxfId="227" priority="316" stopIfTrue="1">
+      <formula>OR(B$17="", B$17="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123:D132 F123:F132 H123:H132 J123:J132 L123:L132 N123:N132 P123:P132 R123:R132 T123:T132 V123:V132 B123:B132">
+    <cfRule type="expression" dxfId="226" priority="315">
+      <formula>OR(B$16="", B$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134:D137 F134:F137 H134:H137 J134:J137 L134:L137 N134:N137 T134:T137 V134:V137 B134:B137">
+    <cfRule type="expression" dxfId="225" priority="314" stopIfTrue="1">
+      <formula>OR(B$18="Prohibited", B$18="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B32 D21:D32 F21:F32 H21:H32 J21:J32 L21:L32 N21:N32 P21:P32 R21:R32 T21:T32 V21:V32">
+    <cfRule type="expression" dxfId="224" priority="321" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B49 D34:D49 F34:F49 H34:H49 J34:J49 L34:L49 N34:N49 P34:P49 R34:R49 T34:T49 V34:V49">
+    <cfRule type="expression" dxfId="223" priority="320">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B69 D51:D69 F51:F69 H51:H69 J51:J69 L51:L69 N51:N69 P51:P69 R51:R69 T51:T69 V51:V69">
+    <cfRule type="expression" dxfId="214" priority="319" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:D87">
+    <cfRule type="expression" dxfId="213" priority="138" stopIfTrue="1">
+      <formula>OR(D$13="", D$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D108">
+    <cfRule type="expression" dxfId="212" priority="137" stopIfTrue="1">
+      <formula>OR(D$13="", D$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F87">
+    <cfRule type="expression" dxfId="203" priority="136" stopIfTrue="1">
+      <formula>OR(F$13="", F$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F108">
+    <cfRule type="expression" dxfId="202" priority="135" stopIfTrue="1">
+      <formula>OR(F$13="", F$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H87">
+    <cfRule type="expression" dxfId="193" priority="134" stopIfTrue="1">
+      <formula>OR(H$13="", H$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92:H108">
+    <cfRule type="expression" dxfId="192" priority="133" stopIfTrue="1">
+      <formula>OR(H$13="", H$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:J90 L71:L90 N71:N90 P71:P90 R71:R90 T71:T90 V71:V90 D88:D90 F88:F90 H88:H90 B89:B90">
+    <cfRule type="expression" dxfId="183" priority="318">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B110:B111 D109:D111 F109:F111 H109:H111 J92:J111 L92:L111 N92:N111 P92:P111 R92:R111 T92:T111 V92:Z111">
-    <cfRule type="expression" dxfId="99" priority="185" stopIfTrue="1">
+  <conditionalFormatting sqref="J92:J111 L92:L111 N92:N111 P92:P111 R92:R111 T92:T111 V92:V111 D109:D111 F109:F111 H109:H111 B110:B111">
+    <cfRule type="expression" dxfId="182" priority="317" stopIfTrue="1">
       <formula>OR(B$15="", B$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114:C114 E114 G114 I114 K114 M114 O114 Q114 S114 U114 D114:D121 F114:F121 H114:H121 J114:J121 L114:L121 N114:N121 P114:P121 R114:R121 T114:T121 V114:Z121 B115:B121">
-    <cfRule type="expression" dxfId="98" priority="184" stopIfTrue="1">
-      <formula>OR(B$17="", B$17="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123:C126 E123:E126 G123:G126 I123:I126 K123:K126 M123:M126 O123:O126 Q123:Q126 S123:S126 U123:U126 D123:D132 F123:F132 H123:H132 J123:J132 L123:L132 N123:N132 P123:P132 R123:R132 T123:T132 V123:Z132 B127:B128 B129:C129 E129 G129 I129 K129 M129 O129 Q129 S129 U129 B130:B132">
-    <cfRule type="expression" dxfId="97" priority="183">
-      <formula>OR(B$16="", B$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134 E134 G134 I134 K134 M134 O134 Q134 S134 U134 L134:L137 N134:N137 T134:T137 V134:Z137 B135:B136 B137:C137 E137 G137 I137 K137 M137 O137 Q137 S137 U137 D134:D137 F134:F137 H134:H137 J134:J137">
-    <cfRule type="expression" dxfId="96" priority="182" stopIfTrue="1">
-      <formula>OR(B$18="Prohibited", B$18="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:Z32">
-    <cfRule type="expression" dxfId="95" priority="189" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:Z49">
-    <cfRule type="expression" dxfId="94" priority="188">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:Z69 C51:Z58">
-    <cfRule type="expression" dxfId="93" priority="187" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C89">
-    <cfRule type="expression" dxfId="92" priority="181" stopIfTrue="1">
+  <conditionalFormatting sqref="P134:P137">
+    <cfRule type="expression" dxfId="157" priority="322" stopIfTrue="1">
+      <formula>OR(R$18="Prohibited", R$18="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R134:R137">
+    <cfRule type="expression" dxfId="148" priority="323" stopIfTrue="1">
+      <formula>OR(#REF!="Prohibited", #REF!="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C49">
+    <cfRule type="expression" dxfId="131" priority="132">
+      <formula>OR(C$12="", C$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C62 C65:C69">
+    <cfRule type="expression" dxfId="130" priority="131" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C110">
-    <cfRule type="expression" dxfId="91" priority="179" stopIfTrue="1">
+  <conditionalFormatting sqref="C90">
+    <cfRule type="expression" dxfId="129" priority="130">
+      <formula>OR(C$14="", C$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C32">
+    <cfRule type="expression" dxfId="128" priority="121" stopIfTrue="1">
+      <formula>OR(C$11="", C$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73:C82 C85:C89">
+    <cfRule type="expression" dxfId="127" priority="129" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C94:C103 C106:C110">
+    <cfRule type="expression" dxfId="126" priority="127" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="90" priority="180">
+    <cfRule type="expression" dxfId="125" priority="128">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:C120">
-    <cfRule type="expression" dxfId="89" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="125" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="88" priority="173">
+    <cfRule type="expression" dxfId="123" priority="126">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="expression" dxfId="87" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="124" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:C132">
-    <cfRule type="expression" dxfId="86" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="123" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135:C136">
-    <cfRule type="expression" dxfId="85" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="122" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:E89">
-    <cfRule type="expression" dxfId="84" priority="164" stopIfTrue="1">
+  <conditionalFormatting sqref="E36:E49">
+    <cfRule type="expression" dxfId="119" priority="120">
+      <formula>OR(E$12="", E$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E62 E65:E69">
+    <cfRule type="expression" dxfId="118" priority="119" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E110">
-    <cfRule type="expression" dxfId="83" priority="162" stopIfTrue="1">
+  <conditionalFormatting sqref="E90">
+    <cfRule type="expression" dxfId="117" priority="118">
+      <formula>OR(E$14="", E$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E32">
+    <cfRule type="expression" dxfId="116" priority="109" stopIfTrue="1">
+      <formula>OR(E$11="", E$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:E82 E85:E89">
+    <cfRule type="expression" dxfId="115" priority="117" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E94:E103 E106:E110">
+    <cfRule type="expression" dxfId="114" priority="115" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="82" priority="163">
+    <cfRule type="expression" dxfId="113" priority="116">
       <formula>OR(E$14="", E$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115:E120">
-    <cfRule type="expression" dxfId="81" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="113" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="80" priority="156">
+    <cfRule type="expression" dxfId="111" priority="114">
       <formula>OR(E$14="", E$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127:E128">
-    <cfRule type="expression" dxfId="79" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="112" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="78" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="111" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136">
-    <cfRule type="expression" dxfId="77" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="110" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:G89">
-    <cfRule type="expression" dxfId="76" priority="147" stopIfTrue="1">
+  <conditionalFormatting sqref="G36:G49">
+    <cfRule type="expression" dxfId="107" priority="108">
+      <formula>OR(G$12="", G$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:G62 G65:G69">
+    <cfRule type="expression" dxfId="106" priority="107" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92:G110">
-    <cfRule type="expression" dxfId="75" priority="145" stopIfTrue="1">
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" dxfId="105" priority="106">
+      <formula>OR(G$14="", G$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G32">
+    <cfRule type="expression" dxfId="104" priority="97" stopIfTrue="1">
+      <formula>OR(G$11="", G$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73:G82 G85:G89">
+    <cfRule type="expression" dxfId="103" priority="105" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G94:G103 G106:G110">
+    <cfRule type="expression" dxfId="102" priority="103" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="expression" dxfId="74" priority="146">
+    <cfRule type="expression" dxfId="101" priority="104">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115:G120">
-    <cfRule type="expression" dxfId="73" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="101" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121">
-    <cfRule type="expression" dxfId="72" priority="139">
+    <cfRule type="expression" dxfId="99" priority="102">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G127:G128">
-    <cfRule type="expression" dxfId="71" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="100" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G132">
-    <cfRule type="expression" dxfId="70" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="99" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135:G136">
-    <cfRule type="expression" dxfId="69" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="98" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:I89">
-    <cfRule type="expression" dxfId="68" priority="130" stopIfTrue="1">
+  <conditionalFormatting sqref="I36:I49">
+    <cfRule type="expression" dxfId="95" priority="96">
+      <formula>OR(I$12="", I$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:I62 I65:I69">
+    <cfRule type="expression" dxfId="94" priority="95" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I92:I110">
-    <cfRule type="expression" dxfId="67" priority="128" stopIfTrue="1">
+  <conditionalFormatting sqref="I90">
+    <cfRule type="expression" dxfId="93" priority="94">
+      <formula>OR(I$14="", I$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I32">
+    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
+      <formula>OR(I$11="", I$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I82 I85:I89">
+    <cfRule type="expression" dxfId="91" priority="93" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I94:I103 I106:I110">
+    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="expression" dxfId="66" priority="129">
+    <cfRule type="expression" dxfId="89" priority="92">
       <formula>OR(I$14="", I$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I120">
-    <cfRule type="expression" dxfId="65" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="expression" dxfId="64" priority="122">
+    <cfRule type="expression" dxfId="87" priority="90">
       <formula>OR(I$14="", I$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:I128">
-    <cfRule type="expression" dxfId="63" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="88" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:I132">
-    <cfRule type="expression" dxfId="62" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="87" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135:I136">
-    <cfRule type="expression" dxfId="61" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="86" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:K89">
-    <cfRule type="expression" dxfId="60" priority="113" stopIfTrue="1">
+  <conditionalFormatting sqref="K36:K49">
+    <cfRule type="expression" dxfId="83" priority="84">
+      <formula>OR(K$12="", K$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:K62 K65:K69">
+    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:K110">
-    <cfRule type="expression" dxfId="59" priority="111" stopIfTrue="1">
+  <conditionalFormatting sqref="K90">
+    <cfRule type="expression" dxfId="81" priority="82">
+      <formula>OR(K$14="", K$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:K32">
+    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
+      <formula>OR(K$11="", K$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:K82 K85:K89">
+    <cfRule type="expression" dxfId="79" priority="81" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K94:K103 K106:K110">
+    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K111">
-    <cfRule type="expression" dxfId="58" priority="112">
+    <cfRule type="expression" dxfId="77" priority="80">
       <formula>OR(K$14="", K$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K115:K120">
-    <cfRule type="expression" dxfId="57" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="expression" dxfId="56" priority="105">
+    <cfRule type="expression" dxfId="75" priority="78">
       <formula>OR(K$14="", K$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127:K128">
-    <cfRule type="expression" dxfId="55" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="76" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K130:K132">
-    <cfRule type="expression" dxfId="54" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="75" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K135:K136">
-    <cfRule type="expression" dxfId="53" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="74" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:M89">
-    <cfRule type="expression" dxfId="52" priority="96" stopIfTrue="1">
+  <conditionalFormatting sqref="M36:M49">
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>OR(M$12="", M$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:M62 M65:M69">
+    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:M110">
-    <cfRule type="expression" dxfId="51" priority="94" stopIfTrue="1">
+  <conditionalFormatting sqref="M90">
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>OR(M$14="", M$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:M32">
+    <cfRule type="expression" dxfId="68" priority="61" stopIfTrue="1">
+      <formula>OR(M$11="", M$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M73:M82 M85:M89">
+    <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M94:M103 M106:M110">
+    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
+      <formula>OR(M$13="", M$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M111">
-    <cfRule type="expression" dxfId="50" priority="95">
+    <cfRule type="expression" dxfId="65" priority="68">
       <formula>OR(M$14="", M$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:M120">
-    <cfRule type="expression" dxfId="49" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="expression" dxfId="48" priority="88">
+    <cfRule type="expression" dxfId="63" priority="66">
       <formula>OR(M$14="", M$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M127:M128">
-    <cfRule type="expression" dxfId="47" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M130:M132">
-    <cfRule type="expression" dxfId="46" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135:M136">
-    <cfRule type="expression" dxfId="45" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="62" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O71:O89">
-    <cfRule type="expression" dxfId="44" priority="79" stopIfTrue="1">
+  <conditionalFormatting sqref="O36:O49">
+    <cfRule type="expression" dxfId="59" priority="60">
+      <formula>OR(O$12="", O$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:O62 O65:O69">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O92:O110">
-    <cfRule type="expression" dxfId="43" priority="77" stopIfTrue="1">
+  <conditionalFormatting sqref="O90">
+    <cfRule type="expression" dxfId="57" priority="58">
+      <formula>OR(O$14="", O$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21:O32">
+    <cfRule type="expression" dxfId="56" priority="49" stopIfTrue="1">
+      <formula>OR(O$11="", O$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O73:O82 O85:O89">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O94:O103 O106:O110">
+    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
+      <formula>OR(O$13="", O$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O111">
-    <cfRule type="expression" dxfId="42" priority="78">
+    <cfRule type="expression" dxfId="53" priority="56">
       <formula>OR(O$14="", O$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O115:O120">
-    <cfRule type="expression" dxfId="41" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O121">
-    <cfRule type="expression" dxfId="40" priority="71">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>OR(O$14="", O$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O127:O128">
-    <cfRule type="expression" dxfId="39" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O130:O132">
-    <cfRule type="expression" dxfId="38" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O135:O136">
-    <cfRule type="expression" dxfId="37" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q71:Q89">
-    <cfRule type="expression" dxfId="36" priority="62" stopIfTrue="1">
+  <conditionalFormatting sqref="Q36:Q49">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>OR(Q$12="", Q$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q53:Q62 Q65:Q69">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q92:Q110">
-    <cfRule type="expression" dxfId="35" priority="60" stopIfTrue="1">
+  <conditionalFormatting sqref="Q90">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>OR(Q$14="", Q$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21:Q32">
+    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
+      <formula>OR(Q$11="", Q$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73:Q82 Q85:Q89">
+    <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q94:Q103 Q106:Q110">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+      <formula>OR(Q$13="", Q$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q111">
-    <cfRule type="expression" dxfId="34" priority="61">
+    <cfRule type="expression" dxfId="41" priority="44">
       <formula>OR(Q$14="", Q$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q115:Q120">
-    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q121">
-    <cfRule type="expression" dxfId="32" priority="54">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>OR(Q$14="", Q$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q127:Q128">
-    <cfRule type="expression" dxfId="31" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q130:Q132">
-    <cfRule type="expression" dxfId="30" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135:Q136">
-    <cfRule type="expression" dxfId="29" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S71:S89">
-    <cfRule type="expression" dxfId="28" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="S36:S49">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>OR(S$12="", S$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:S62 S65:S69">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S92:S110">
-    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
+  <conditionalFormatting sqref="S90">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>OR(S$14="", S$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21:S32">
+    <cfRule type="expression" dxfId="32" priority="25" stopIfTrue="1">
+      <formula>OR(S$11="", S$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S73:S82 S85:S89">
+    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="S94:S103 S106:S110">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
+      <formula>OR(S$13="", S$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S111">
-    <cfRule type="expression" dxfId="26" priority="44">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>OR(S$14="", S$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S115:S120">
-    <cfRule type="expression" dxfId="25" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S121">
-    <cfRule type="expression" dxfId="24" priority="37">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>OR(S$14="", S$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S127:S128">
-    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S130:S132">
-    <cfRule type="expression" dxfId="22" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:S136">
-    <cfRule type="expression" dxfId="21" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U71:U89">
-    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="U36:U49">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>OR(U$12="", U$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U53:U62 U65:U69">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U92:U110">
-    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+  <conditionalFormatting sqref="U90">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>OR(U$14="", U$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21:U32">
+    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
+      <formula>OR(U$11="", U$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U73:U82 U85:U89">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U94:U103 U106:U110">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>OR(U$13="", U$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U111">
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>OR(U$14="", U$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U115:U120">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U121">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>OR(U$14="", U$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U127:U128">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U130:U132">
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U135:U136">
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B58">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B88">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B78">
-    <cfRule type="expression" dxfId="10" priority="9">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B109">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B99">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D87">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
-      <formula>OR(D$13="", D$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D108">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
-      <formula>OR(D$13="", D$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F87">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>OR(F$13="", F$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:F108">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
-      <formula>OR(F$13="", F$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H87">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
-      <formula>OR(H$13="", H$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H108">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>OR(H$13="", H$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P134:P137">
-    <cfRule type="expression" dxfId="1" priority="190" stopIfTrue="1">
-      <formula>OR(R$18="Prohibited", R$18="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R134:R137">
-    <cfRule type="expression" dxfId="0" priority="191" stopIfTrue="1">
-      <formula>OR(#REF!="Prohibited", #REF!="")</formula>
+  <conditionalFormatting sqref="W36:W49">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>OR(W$12="", W$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W53:W62 W65:W69">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>OR(W$13="", W$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W90">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>OR(W$14="", W$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21:W32">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+      <formula>OR(W$11="", W$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W73:W82 W85:W89">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+      <formula>OR(W$13="", W$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W94:W103 W106:W110">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>OR(W$13="", W$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W111">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>OR(W$14="", W$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W115:W120">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>OR(W$13="", W$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W121">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>OR(W$14="", W$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W127:W128">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>OR(W$13="", W$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W130:W132">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>OR(W$13="", W$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W135:W136">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F03CD1DA-2892-CB4D-9879-60383C06A898}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B12:AA15 B11:AE11</xm:sqref>
+          <xm:sqref>B11:B15 D11:D15 F11:F15 H11:H15 J11:J15 L11:L15 N11:N15 P11:P15 R11:R15 T11:T15 V11:V15 X12:X15 X11:AB11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{390FA64D-BC39-BB40-8BA0-1E011160B117}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B34:B35 B83:I84 B92:I93 B104:I105 B71:I72 K83:K84 K92:K93 K104:K105 K71:K72 M83:M84 M92:M93 M104:M105 M71:M72 O71:O72 O83:O84 O92:O93 O104:O105 Q104:Q105 Q71:Q72 Q83:Q84 Q92:Q93 V34:Z35 S92:S93 S104:S105 S71:S72 S83:S84 U83:U84 U92:U93 U104:U105 U71:U72 D34:D35 F34:F35 H34:H35 L34:L35 N34:N35 P34:P35 R34:R35 B63:Z64 B134:Z134 B51:Z52 B5:AA7 T34:T35 J34:J35 B139:Z139 B141:Z142 B9:AA10</xm:sqref>
+          <xm:sqref>B34:B35 H63:H64 J9:J10 J141:J142 J139 J63:J64 L63:L64 L9:L10 L141:L142 L134 N134 N63:N64 N9:N10 N51:N52 P51:P52 P134 P63:P64 P5:P7 R5:R7 R51:R52 R134 R139 T139 T5:T7 T51:T52 D34:D35 F34:F35 H34:H35 L34:L35 N34:N35 P34:P35 R34:R35 H71:H72 H83:H84 T34:T35 J34:J35 H92:H93 H104:H105 B9:B10 B141:B142 B139 B5:B7 B51:B52 B134 B63:B64 B71:B72 B104:B105 B92:B93 B83:B84 D83:D84 D9:D10 D141:D142 D139 D5:D7 D51:D52 D134 D63:D64 D71:D72 D104:D105 D92:D93 F92:F93 F83:F84 F9:F10 F141:F142 F139 F5:F7 F51:F52 F134 F63:F64 F71:F72 F104:F105 H9:H10 H141:H142 H139 H5:H7 H51:H52 H134 J5:J7 J51:J52 J134 L139 L5:L7 L51:L52 N141:N142 N139 N5:N7 P9:P10 P141:P142 P139 R63:R64 R9:R10 R141:R142 T134 T63:T64 T9:T10 T141:T142 V141:V142 V139 V5:V7 V51:V52 V34:V35 V134 V63:V64 V9:V10 X9:X10 X5:X7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9CD4731-5D38-314E-829D-4358262BBF3E}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B20 U16:AA20 C16:C20 B16:B18 D20 E16:E20 D16:D18 F20 G16:G20 F16:F18 H20 I16:I20 T16:T18 J20 K16:K20 H16:H18 L20 M16:M20 J16:J18 N20 O16:O20 L16:L18 P20 Q16:Q20 N16:N18 R20 S16:S20 T20 R16:R18 P16:P18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D987583-DF19-C847-98CE-62D957C6A111}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$8:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C21 C36 C53 C73 C94 C115 C127 C135 E21 E36 E53 E73 E94 E115 E127 E135 G21 G36 G53 G73 G94 G115 G127 G135 I21 I36 I53 I73 I94 I115 I127 I135 K21 K36 K53 K73 K94 K115 K127 K135 M21 M36 M53 M73 M94 M115 M127 M135 O21 O36 O53 O73 O94 O115 O127 O135 Q21 Q36 Q53 Q73 Q94 Q115 Q127 Q135 S21 S36 S53 S73 S94 S115 S127 S135 U21 U36 U53 U73 U94 U115 U127 U135</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A58B297-4176-C142-BFE2-5FAE35D5A495}">
-          <x14:formula1>
-            <xm:f>Sheet2!$C$8:$C$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C22:C25 C30 C38:C41 C47 C66 C55:C58 C86 C75:C78 C107 C96:C99 E22:E25 E30 E38:E41 E47 E66 E55:E58 E86 E75:E78 E107 E96:E99 G22:G25 G30 G38:G41 G47 G66 G55:G58 G86 G75:G78 G107 G96:G99 I22:I25 I30 I38:I41 I47 I66 I55:I58 I86 I75:I78 I107 I96:I99 K22:K25 K30 K38:K41 K47 K66 K55:K58 K86 K75:K78 K107 K96:K99 M22:M25 M30 M38:M41 M47 M66 M55:M58 M86 M75:M78 M107 M96:M99 O22:O25 O30 O38:O41 O47 O66 O55:O58 O86 O75:O78 O107 O96:O99 Q22:Q25 Q30 Q38:Q41 Q47 Q66 Q55:Q58 Q86 Q75:Q78 Q107 Q96:Q99 S22:S25 S30 S38:S41 S47 S66 S55:S58 S86 S75:S78 S107 S96:S99 U22:U25 U30 U38:U41 U47 U66 U55:U58 U86 U75:U78 U107 U96:U99</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38F82449-65ED-2B46-894E-2362DD296097}">
-          <x14:formula1>
-            <xm:f>Sheet2!$D$8:$D$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C26:C27 C42:C43 C59:C60 C79:C80 C100:C101 C130 E26:E27 E42:E43 E59:E60 E79:E80 E100:E101 E130 G26:G27 G42:G43 G59:G60 G79:G80 G100:G101 G130 I26:I27 I42:I43 I59:I60 I79:I80 I100:I101 I130 K26:K27 K42:K43 K59:K60 K79:K80 K100:K101 K130 M26:M27 M42:M43 M59:M60 M79:M80 M100:M101 M130 O26:O27 O42:O43 O59:O60 O79:O80 O100:O101 O130 Q26:Q27 Q42:Q43 Q59:Q60 Q79:Q80 Q100:Q101 Q130 S26:S27 S42:S43 S59:S60 S79:S80 S100:S101 S130 U26:U27 U42:U43 U59:U60 U79:U80 U100:U101 U130</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3ED10EF8-8297-B742-B7FC-EF775037FBAF}">
-          <x14:formula1>
-            <xm:f>Sheet2!$F$8:$F$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C29 C46 C65 C85 C106 E29 E46 E65 E85 E106 G29 G46 G65 G85 G106 I29 I46 I65 I85 I106 K29 K46 K65 K85 K106 M29 M46 M65 M85 M106 O29 O46 O65 O85 O106 Q29 Q46 Q65 Q85 Q106 S29 S46 S65 S85 S106 U29 U46 U65 U85 U106</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F56AE27B-F1BB-6F4F-8428-3E273C820298}">
-          <x14:formula1>
-            <xm:f>Sheet2!$G$8:$G$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C31 C48 C67 C87 C108 E31 E48 E67 E87 E108 G31 G48 G67 G87 G108 I31 I48 I67 I87 I108 K31 K48 K67 K87 K108 M31 M48 M67 M87 M108 O31 O48 O67 O87 O108 Q31 Q48 Q67 Q87 Q108 S31 S48 S67 S87 S108 U31 U48 U67 U87 U108</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{580E3213-A5C6-A842-910E-3BBA6BCAD3A3}">
-          <x14:formula1>
-            <xm:f>Sheet2!$H$8:$H$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C32 C49 C68 C88 C109 C119 C131 E32 E49 E68 E88 E109 E119 E131 G32 G49 G68 G88 G109 G119 G131 I32 I49 I68 I88 I109 I119 I131 K32 K49 K68 K88 K109 K119 K131 M32 M49 M68 M88 M109 M119 M131 O32 O49 O68 O88 O109 O119 O131 Q32 Q49 Q68 Q88 Q109 Q119 Q131 S32 S49 S68 S88 S109 S119 S131 U32 U49 U68 U88 U109 U119 U131</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A61314F3-A7E4-7D44-BD9C-12BB83BBC7D6}">
-          <x14:formula1>
-            <xm:f>Sheet2!$I$8:$I$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C37 C54 C74 C95 C116 C136 E37 E54 E74 E95 E116 E136 G37 G54 G74 G95 G116 G136 I37 I54 I74 I95 I116 I136 K37 K54 K74 K95 K116 K136 M37 M54 M74 M95 M116 M136 O37 O54 O74 O95 O116 O136 Q37 Q54 Q74 Q95 Q116 Q136 S37 S54 S74 S95 S116 S136 U37 U54 U74 U95 U116 U136</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{300FFD76-A928-344E-9C47-B16E38D729A1}">
-          <x14:formula1>
-            <xm:f>Sheet2!$E$8:$E$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C45 C61:C62 C81:C82 C102:C103 C117:C118 C128 E44:E45 E61:E62 E81:E82 E102:E103 E117:E118 E128 G44:G45 G61:G62 G81:G82 G102:G103 G117:G118 G128 I44:I45 I61:I62 I81:I82 I102:I103 I117:I118 I128 K44:K45 K61:K62 K81:K82 K102:K103 K117:K118 K128 M44:M45 M61:M62 M81:M82 M102:M103 M117:M118 M128 O44:O45 O61:O62 O81:O82 O102:O103 O117:O118 O128 Q44:Q45 Q61:Q62 Q81:Q82 Q102:Q103 Q117:Q118 Q128 S44:S45 S61:S62 S81:S82 S102:S103 S117:S118 S128 U44:U45 U61:U62 U81:U82 U102:U103 U117:U118 U128</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96F1185A-9CBE-A248-B159-98BD86CFFF06}">
-          <x14:formula1>
-            <xm:f>Sheet2!$J$8:$J$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C69 C89 C110 C120 C132 E69 E89 E110 E120 E132 G69 G89 G110 G120 G132 I69 I89 I110 I120 I132 K69 K89 K110 K120 K132 M69 M89 M110 M120 M132 O69 O89 O110 O120 O132 Q69 Q89 Q110 Q120 Q132 S69 S89 S110 S120 S132 U69 U89 U110 U120 U132</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78FD689C-F053-F043-A03C-3E8E3F99305E}">
-          <x14:formula1>
-            <xm:f>Sheet2!$K$8:$K$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C90 C111 C121 E90 E111 E121 G90 G111 G121 I90 I111 I121 K90 K111 K121 M90 M111 M121 O90 O111 O121 Q90 Q111 Q121 S90 S111 S121 U90 U111 U121</xm:sqref>
+          <xm:sqref>B20 P20 P16:P18 B16:B18 D20 R16:R18 D16:D18 F20 T20 F16:F18 H20 L16:L18 T16:T18 J20 R20 H16:H18 L20 N16:N18 J16:J18 N20 V16:V20 X16:X20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B51C4797-3444-404A-9E4C-DBFFC9217932}">
           <x14:formula1>
@@ -4933,13 +9228,13 @@
           <x14:formula1>
             <xm:f>Sheet2!AA1:AA2</xm:f>
           </x14:formula1>
-          <xm:sqref>AB5:AC6</xm:sqref>
+          <xm:sqref>Y5:Z6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DA35318-7EA2-274B-865C-ADF124950B07}">
           <x14:formula1>
-            <xm:f>Sheet2!B3:B4</xm:f>
+            <xm:f>Sheet2!Z3:Z4</xm:f>
           </x14:formula1>
-          <xm:sqref>C8 E8 S8 Q8 O8 M8 K8 I8 G8 U8 W8:AA8</xm:sqref>
+          <xm:sqref>X8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4949,10 +9244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4960,104 +9255,147 @@
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <f>Districts!B1</f>
         <v>COM/IND</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
+        <f>Districts!D1</f>
+        <v>V</v>
+      </c>
+      <c r="D12" t="str">
+        <f>Districts!F1</f>
+        <v>R</v>
+      </c>
+      <c r="E12" t="str">
         <f>Districts!H1</f>
         <v>Ru</v>
       </c>
-      <c r="D11" t="str">
+      <c r="F12" t="str">
+        <f>Districts!J1</f>
+        <v xml:space="preserve">RC </v>
+      </c>
+      <c r="G12" t="str">
         <f>Districts!L1</f>
         <v>CR</v>
       </c>
-      <c r="E11" t="str">
+      <c r="H12" t="str">
+        <f>Districts!N1</f>
+        <v>AL</v>
+      </c>
+      <c r="I12" t="str">
         <f>Districts!P1</f>
         <v>RL</v>
       </c>
-      <c r="F11" t="str">
+      <c r="J12" t="str">
+        <f>Districts!R1</f>
+        <v>FHA</v>
+      </c>
+      <c r="K12" t="str">
         <f>Districts!T1</f>
         <v>WSA</v>
       </c>
-      <c r="G11">
-        <f>Districts!W1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="L12" t="str">
+        <f>Districts!V1</f>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="6">
         <v>42928</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="6">
         <v>42186</v>
       </c>
     </row>
@@ -5070,13 +9408,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B3:B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D916DA62-38BE-E84F-9734-1FA42CE0016E}">
           <x14:formula1>
             <xm:f>Sheet2!$B$14:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
